--- a/2025/10/2025-10-24/24_combined_confidence.xlsx
+++ b/2025/10/2025-10-24/24_combined_confidence.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +473,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Llanelli Town AFC - The New Saints : 19:45</t>
+          <t>Llanelli Town AFC - The New Saints ✓: 0:4</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D2" t="n">
         <v>85</v>
@@ -491,55 +491,117 @@
       <c r="F2" t="n">
         <v>1.62</v>
       </c>
-      <c r="G2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>AC Milan  - Pisa Sporting Club: 19:45</t>
+          <t>SC União Torreense ✓ - UD Oliveirense: 3:2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>AC Milan</t>
+          <t>SC União Torreense</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>64</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3" t="inlineStr"/>
+      <c r="E3" t="n">
         <v>100</v>
       </c>
-      <c r="E3" t="n">
-        <v>92</v>
-      </c>
       <c r="F3" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="G3" t="inlineStr"/>
+        <v>1.99</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SC União Torreense  - UD Oliveirense: 18:45</t>
+          <t>AC Milan  - Pisa Sporting Club: 2:2</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SC União Torreense</t>
+          <t>AC Milan</t>
         </is>
       </c>
       <c r="C4" t="n">
+        <v>56</v>
+      </c>
+      <c r="D4" t="n">
+        <v>100</v>
+      </c>
+      <c r="E4" t="n">
+        <v>92</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="G4" t="inlineStr"/>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>HNK Gorica - HNK Hajduk Split ✓: 1:3</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>HNK Hajduk Split</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
         <v>55</v>
       </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="n">
-        <v>100</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1.99</v>
-      </c>
-      <c r="G4" t="inlineStr"/>
+      <c r="D5" t="n">
+        <v>79</v>
+      </c>
+      <c r="E5" t="inlineStr"/>
+      <c r="F5" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Aarhus GF ✓ - FC Nordsjaelland: 1:0</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Aarhus GF</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>52</v>
+      </c>
+      <c r="D6" t="n">
+        <v>88</v>
+      </c>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
